--- a/ipsj_v4/SJIS/img/languageASFTgraph 2.xlsx
+++ b/ipsj_v4/SJIS/img/languageASFTgraph 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hieda/Documents/Conference-LaTeX-template_7-9-18/img/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hieda/Documents/RepForPaper/ipsj_v4/SJIS/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8F9E7815-F574-BD4A-8F75-5F595A6716B2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C531B89-BCD5-854B-9B66-44812C9265BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="480" windowWidth="25000" windowHeight="14600" xr2:uid="{4A38DA88-9EFE-7749-9497-A81A56385356}"/>
+    <workbookView xWindow="300" yWindow="460" windowWidth="25000" windowHeight="14560" xr2:uid="{4A38DA88-9EFE-7749-9497-A81A56385356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
